--- a/topic_split/topic_16.xlsx
+++ b/topic_split/topic_16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>issue</t>
   </si>
@@ -22,41 +22,43 @@
     <t>topic</t>
   </si>
   <si>
-    <t>confidence_score</t>
-  </si>
-  <si>
-    <t>[4.25531408e-308 2.16292065e-308 2.85188313e-308 2.06406489e-308
- 3.31784888e-308 4.04079652e-308 4.82621185e-308 4.01373906e-308
- 3.49891107e-308 1.77460354e-307 5.30448756e-308 3.58774562e-308
- 4.32321490e-308 2.67582311e-308 4.24887718e-308 1.00000000e+000
- 5.12890390e-308 4.25172868e-308 2.35669416e-307 1.75947774e-307
- 3.59231156e-308 8.54490769e-308 3.97459256e-308 1.37948194e-307
- 5.85842109e-308]</t>
-  </si>
-  <si>
-    <t>[4.30240614e-308 2.16631284e-308 2.83093841e-308 2.06766336e-308
- 3.30061293e-308 4.05671703e-308 4.86399489e-308 4.02119361e-308
- 3.48112206e-308 1.85845486e-307 5.30891871e-308 3.55601039e-308
- 4.33029845e-308 2.67933663e-308 4.29310780e-308 1.00000000e+000
- 5.17985497e-308 4.31365485e-308 2.26514902e-307 1.79619617e-307
- 3.57223945e-308 8.61890007e-308 3.95934978e-308 1.44277004e-307
- 5.79070066e-308]</t>
-  </si>
-  <si>
-    <t>[4.30213869e-308 2.15518321e-308 2.79099815e-308 2.05708896e-308
- 3.25101678e-308 3.98188380e-308 4.72471622e-308 3.92668840e-308
- 3.41443976e-308 1.93577564e-307 5.14027438e-308 3.49678668e-308
- 4.21958845e-308 2.65626349e-308 4.18929738e-308 1.00000000e+000
- 5.08945459e-308 4.21879592e-308 1.98114963e-307 1.63364116e-307
- 3.49874190e-308 8.24018821e-308 3.86413157e-308 1.41027825e-307
- 5.62157552e-308]</t>
-  </si>
-  <si>
-    <t>[0.01234188 0.00620334 0.00781338 0.00591956 0.00904134 0.01125095
- 0.01365521 0.01111642 0.00958525 0.06622123 0.01446118 0.00973658
- 0.01198903 0.00766534 0.01206711 0.32349419 0.01449035 0.01222648
- 0.05323158 0.04996998 0.00982965 0.02340084 0.01089504 0.0468822
- 0.01569848]</t>
+    <t>Update the Local Unit edit workflow
+- **Feature:** Allow logged-in RCRC Movement users to edit local unit information.
+- **Tasks:**
+  - Display a change summary after edits are done and allow the user to "Submit".
+  - Update front-end with pending edits validation status after submission.
+  - Highlight the fields that have been modified when viewing the form.</t>
+  </si>
+  <si>
+    <t>Update the Local Unit addition workflow
+- **Feature:** Allow logged-in RCRC Movement users to add new local units.
+- **Key Tasks:**
+  - Create a new entry using the Local Unit form
+  - Display the new entry with `Not validated` status.</t>
+  </si>
+  <si>
+    <t>Implement the Local Unit deletion workflow
+- **Feature:** Allow Local Unit Admin users to delete local units.
+- **Key Tasks:**
+  - Present deletion options (`Non-existent`, `Incorrectly Added`, `Security Concerns`, `Other`).
+  - Require a comment box for additional details.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Field Report 3.0
+Background
+The purpose of the Simplified Reporting Session during the KL meeting was to pow wow around the following fundamental issues. 
+1.	Reduce Field/Question Count:
+o	Identify and eliminate redundant fields across the field report, and a new Monitoring tool from the Project 3W and Emergency 3W tools.
+2.	Standardize Data Interoperability:
+o	Ensure field names, data types, and formats are consistent between the platforms.
+o	Create a shared field structure to ease the data transfer between tools.
+3.	Use Required/Optional Fields:
+o	Make fields essential for core reporting mandatory, while others are optional, reducing the burden on the users.
+4.	Implement Dynamic Forms:
+o	Conditional questions that only appear based on previous answers can streamline the user experience.
+Proposed state
+![Image](https://github.com/user-attachments/assets/da50b6ef-9ed5-40b8-80e2-f31442aea9e8)
+</t>
   </si>
 </sst>
 </file>
@@ -414,65 +416,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>176</v>
       </c>
       <c r="B2">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>177</v>
       </c>
       <c r="B3">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>178</v>
       </c>
       <c r="B4">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>179</v>
       </c>
       <c r="B5">
         <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
